--- a/group-reports/tables/shahriar-1-2-tests-results-test-3.xlsx
+++ b/group-reports/tables/shahriar-1-2-tests-results-test-3.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" s="1" t="inlineStr">
         <is>
-          <t>Utility</t>
+          <t>Utility (Percent)</t>
         </is>
       </c>
     </row>
@@ -626,17 +626,17 @@
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>46 msec</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>2753</t>
+          <t>2753 msec</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>1279.31</t>
+          <t>1279.31 msec</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -703,17 +703,17 @@
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>69 msec</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>3258</t>
+          <t>3258 msec</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>1279.21</t>
+          <t>1279.21 msec</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
@@ -780,17 +780,17 @@
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>69</t>
+          <t>69 msec</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>2486</t>
+          <t>2486 msec</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>1278.98</t>
+          <t>1278.98 msec</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -857,17 +857,17 @@
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>56 msec</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>2941</t>
+          <t>2941 msec</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>1279.41</t>
+          <t>1279.41 msec</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
@@ -934,17 +934,17 @@
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>103 msec</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>3723</t>
+          <t>3723 msec</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>1279.28</t>
+          <t>1279.28 msec</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
@@ -1011,17 +1011,17 @@
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>57 msec</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>3036</t>
+          <t>3036 msec</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>1279.11</t>
+          <t>1279.11 msec</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>96 msec</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>3277</t>
+          <t>3277 msec</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>1279.23</t>
+          <t>1279.23 msec</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
@@ -1165,17 +1165,17 @@
       </c>
       <c r="I10" s="1" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>119 msec</t>
         </is>
       </c>
       <c r="J10" s="1" t="inlineStr">
         <is>
-          <t>2524</t>
+          <t>2524 msec</t>
         </is>
       </c>
       <c r="K10" s="1" t="inlineStr">
         <is>
-          <t>1279.20</t>
+          <t>1279.20 msec</t>
         </is>
       </c>
       <c r="L10" s="1" t="inlineStr">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>10 msec</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>2515</t>
+          <t>2515 msec</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>1278.90</t>
+          <t>1278.90 msec</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>50 msec</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>2543</t>
+          <t>2543 msec</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>1279.14</t>
+          <t>1279.14 msec</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
@@ -1396,17 +1396,17 @@
       </c>
       <c r="I13" s="1" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>65 msec</t>
         </is>
       </c>
       <c r="J13" s="1" t="inlineStr">
         <is>
-          <t>2560</t>
+          <t>2560 msec</t>
         </is>
       </c>
       <c r="K13" s="1" t="inlineStr">
         <is>
-          <t>1280.33</t>
+          <t>1280.33 msec</t>
         </is>
       </c>
       <c r="L13" s="1" t="inlineStr">
@@ -1473,17 +1473,17 @@
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>84 msec</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>2659</t>
+          <t>2659 msec</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>1279.07</t>
+          <t>1279.07 msec</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
@@ -1550,17 +1550,17 @@
       </c>
       <c r="I15" s="1" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>11 msec</t>
         </is>
       </c>
       <c r="J15" s="1" t="inlineStr">
         <is>
-          <t>2476</t>
+          <t>2476 msec</t>
         </is>
       </c>
       <c r="K15" s="1" t="inlineStr">
         <is>
-          <t>1278.86</t>
+          <t>1278.86 msec</t>
         </is>
       </c>
       <c r="L15" s="1" t="inlineStr">
@@ -1627,17 +1627,17 @@
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>81 msec</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>2635</t>
+          <t>2635 msec</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>1279.19</t>
+          <t>1279.19 msec</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>72 msec</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>2746</t>
+          <t>2746 msec</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>1279.29</t>
+          <t>1279.29 msec</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
@@ -1781,17 +1781,17 @@
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>47 msec</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>2522</t>
+          <t>2522 msec</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>1279.31</t>
+          <t>1279.31 msec</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
@@ -1858,17 +1858,17 @@
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>51 msec</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>2454 msec</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>1279.15</t>
+          <t>1279.15 msec</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
@@ -1935,17 +1935,17 @@
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>24 msec</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>2642</t>
+          <t>2642 msec</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>1278.99</t>
+          <t>1278.99 msec</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
@@ -2012,17 +2012,17 @@
       </c>
       <c r="I21" s="1" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>29 msec</t>
         </is>
       </c>
       <c r="J21" s="1" t="inlineStr">
         <is>
-          <t>2601</t>
+          <t>2601 msec</t>
         </is>
       </c>
       <c r="K21" s="1" t="inlineStr">
         <is>
-          <t>1279.05</t>
+          <t>1279.05 msec</t>
         </is>
       </c>
       <c r="L21" s="1" t="inlineStr">
@@ -2089,17 +2089,17 @@
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>93 msec</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2520 msec</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>1279.01</t>
+          <t>1279.01 msec</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
@@ -2166,17 +2166,17 @@
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>90 msec</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>2628</t>
+          <t>2628 msec</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>1279.26</t>
+          <t>1279.26 msec</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
